--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
+++ b/output/StructureDefinition-cls-umls-platelet-measurement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
